--- a/biology/Médecine/Polyclinique_internationale_Hôtel_Dieu_Abidjan/Polyclinique_internationale_Hôtel_Dieu_Abidjan.xlsx
+++ b/biology/Médecine/Polyclinique_internationale_Hôtel_Dieu_Abidjan/Polyclinique_internationale_Hôtel_Dieu_Abidjan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Polyclinique_internationale_H%C3%B4tel_Dieu_Abidjan</t>
+          <t>Polyclinique_internationale_Hôtel_Dieu_Abidjan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Polyclinique internationale Hôtel Dieu Abidjan (PIHDA) est un établissement médical privé multidisciplinaire fondé en janvier 1996 par le chirurgien Assad Bassit. L'établissement est situé à Abidjan, dans la commune de Treichville, au boulevard de Marseille Zone 2C. Il assure le diagnostic, le traitement et les soins, dans divers domaines de la santé.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Polyclinique_internationale_H%C3%B4tel_Dieu_Abidjan</t>
+          <t>Polyclinique_internationale_Hôtel_Dieu_Abidjan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Polyclinique internationale Hôtel Dieu Abidjan compte 62 chambres recevant les patients de chirurgie, de médecine et d'obstétrique. L'hôpital dispose d'un plateau médico-technique particulièrement important, doté des outils de diagnostic et de traitement assez performants. Les consultations sont effectuées par plus de 70 médecins et dans la plupart des disciplines médicales et chirurgicales majeures. L'établissement dispose d'un service d'urgences qui assure une permanence médico-chirurgicale et la prise en charge des patients.
 Ayant commencé ses activités avec un effectif de 60 personnes en 1996, la Polyclinique internationale Hôtel Dieu Abidjan emploie, en 2007, 70 médecins spécialistes et environ 300 infirmiers et agents paramédicaux.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Polyclinique_internationale_H%C3%B4tel_Dieu_Abidjan</t>
+          <t>Polyclinique_internationale_Hôtel_Dieu_Abidjan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Reconnaissance</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Quality Summit Award - New York 2005
 Étoile Internationale de la Qualité - Paris 2006
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Polyclinique_internationale_H%C3%B4tel_Dieu_Abidjan</t>
+          <t>Polyclinique_internationale_Hôtel_Dieu_Abidjan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel
  Portail de la Côte d’Ivoire   Portail de la médecine   Portail des soins infirmiers                   </t>
